--- a/biology/Médecine/Heinrich_Müller_(anatomiste)/Heinrich_Müller_(anatomiste).xlsx
+++ b/biology/Médecine/Heinrich_Müller_(anatomiste)/Heinrich_Müller_(anatomiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heinrich_M%C3%BCller_(anatomiste)</t>
+          <t>Heinrich_Müller_(anatomiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Müller, né le 17 décembre 1820 à Castell et mort le 10 mai 1864 à Wurtzbourg, est un anatomiste bavarois, connu principalement pour ses travaux d'anatomie comparée et ses études de l'œil humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heinrich_M%C3%BCller_(anatomiste)</t>
+          <t>Heinrich_Müller_(anatomiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du directeur de cabinet Gottlieb Müller et de son épouse Philippine Meyer. Il étudie la médecine dans les universités de Munich, Fribourg, Heidelberg, Wurtzbourg et Vienne. Il a pour professeurs Ignaz Döllinger (de) (Munich), Friedrich Arnold (Fribourg), Friedrich Gustav Jakob Henle (Heidelberg) et Karel Rokitansky (Vienne).
 En 1847, il est habilité par l'université de Würzburg. Il se spécialise d'abord dans l'anatomo-pathologie. Lorsque Rudolf Virchow arrive à l'université en 1849, Müller s'oriente vers l'anatomie comparée et topographique. En 1852, il devient professeur dans ce domaine puis titulaire en 1858. Il donne aussi des cours d'anatomie systématique et d'histologie.
